--- a/public/docs/FINANCAS/TABELA_PREMIACOES_PORCENTAGENS.xlsx
+++ b/public/docs/FINANCAS/TABELA_PREMIACOES_PORCENTAGENS.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="B2:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,32 +448,32 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="C3" s="1">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3">
         <f>(C3*100)/$B$3</f>
-        <v>9.4594594594594597</v>
+        <v>9.8412698412698418</v>
       </c>
       <c r="E3" s="1">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F3" s="3">
         <f>(E3*100)/B3</f>
-        <v>28.378378378378379</v>
+        <v>30.793650793650794</v>
       </c>
       <c r="G3" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" s="3">
         <f>(G3*100)/B3</f>
-        <v>16.554054054054053</v>
+        <v>15.873015873015873</v>
       </c>
       <c r="I3" s="3">
         <f>D3+F3+H3</f>
-        <v>54.391891891891888</v>
+        <v>56.507936507936506</v>
       </c>
     </row>
   </sheetData>
